--- a/statistics/HistoricalDistanceData/historical_distance/Q30643826-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q30643826-en.xlsx
@@ -31,12 +31,12 @@
     <t>uri</t>
   </si>
   <si>
+    <t>United States presidential election of 1960</t>
+  </si>
+  <si>
     <t>U. S. Electoral College</t>
   </si>
   <si>
-    <t>United States presidential election of 1960</t>
-  </si>
-  <si>
     <t>Results of 1960 Presidential Election Primaries</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.britannica.com/event/United-States-presidential-election-of-1960</t>
+  </si>
+  <si>
     <t>https://www.archives.gov/federal-register/electoral-college/votes/1953_1957.html#1960</t>
-  </si>
-  <si>
-    <t>https://www.britannica.com/event/United-States-presidential-election-of-1960</t>
   </si>
   <si>
     <t>https://www.jfklibrary.org/learn/about-jfk/life-of-john-f-kennedy/fast-facts-john-f-kennedy/results-of-1960-presidential-election-primaries</t>
@@ -499,8 +499,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="1960"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" location="1960"/>
     <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
